--- a/data/trans_orig/P57_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P57_R-Habitat-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>126667</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>108114</v>
+        <v>105628</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>146902</v>
+        <v>148246</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1891988729080784</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1614863787395383</v>
+        <v>0.1577723776147348</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2194226972493467</v>
+        <v>0.2214304581067184</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>154</v>
@@ -763,19 +763,19 @@
         <v>160644</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>138446</v>
+        <v>140643</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>182823</v>
+        <v>186672</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2407026606517167</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.207441989565026</v>
+        <v>0.2107346208779493</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2739349132992122</v>
+        <v>0.2797024924428044</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>275</v>
@@ -784,19 +784,19 @@
         <v>287311</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>258731</v>
+        <v>254950</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>320359</v>
+        <v>316017</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2149103495863731</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1935326358725248</v>
+        <v>0.1907044410865709</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2396308924895523</v>
+        <v>0.2363826851827157</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>542826</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>522591</v>
+        <v>521247</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>561379</v>
+        <v>563865</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8108011270919216</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7805773027506533</v>
+        <v>0.7785695418932814</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8385136212604615</v>
+        <v>0.8422276223852648</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>507</v>
@@ -834,19 +834,19 @@
         <v>506750</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>484571</v>
+        <v>480722</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>528948</v>
+        <v>526751</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7592973393482834</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7260650867007878</v>
+        <v>0.7202975075571955</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7925580104349739</v>
+        <v>0.7892653791220507</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1033</v>
@@ -855,19 +855,19 @@
         <v>1049576</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1016528</v>
+        <v>1020870</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1078156</v>
+        <v>1081937</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7850896504136269</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7603691075104478</v>
+        <v>0.7636173148172838</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8064673641274757</v>
+        <v>0.8092955589134287</v>
       </c>
     </row>
     <row r="6">
@@ -959,19 +959,19 @@
         <v>205315</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>180570</v>
+        <v>178665</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>230504</v>
+        <v>231300</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2010273053242762</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.176799064107892</v>
+        <v>0.174933588082423</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2256907222318525</v>
+        <v>0.2264700575181454</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>222</v>
@@ -980,19 +980,19 @@
         <v>247779</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>217275</v>
+        <v>217513</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>276114</v>
+        <v>274437</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2378065109780508</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2085296663153792</v>
+        <v>0.2087586027093277</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2650006927368713</v>
+        <v>0.2633918732482383</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>418</v>
@@ -1001,19 +1001,19 @@
         <v>453094</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>414062</v>
+        <v>416212</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>492755</v>
+        <v>491461</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2196005837021666</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2006831138911387</v>
+        <v>0.2017250057805947</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.23882290734842</v>
+        <v>0.2381956528431086</v>
       </c>
     </row>
     <row r="8">
@@ -1030,19 +1030,19 @@
         <v>816014</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>790825</v>
+        <v>790029</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>840759</v>
+        <v>842664</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7989726946757238</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7743092777681476</v>
+        <v>0.7735299424818548</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8232009358921081</v>
+        <v>0.8250664119175777</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>754</v>
@@ -1051,19 +1051,19 @@
         <v>794157</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>765822</v>
+        <v>767499</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>824661</v>
+        <v>824423</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7621934890219493</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7349993072631287</v>
+        <v>0.7366081267517617</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7914703336846208</v>
+        <v>0.7912413972906724</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1508</v>
@@ -1072,19 +1072,19 @@
         <v>1610171</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1570510</v>
+        <v>1571804</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1649203</v>
+        <v>1647053</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7803994162978334</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7611770926515797</v>
+        <v>0.7618043471568914</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7993168861088611</v>
+        <v>0.7982749942194054</v>
       </c>
     </row>
     <row r="9">
@@ -1176,19 +1176,19 @@
         <v>130986</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>109659</v>
+        <v>111280</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>155070</v>
+        <v>153079</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1731618135287695</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1449680096291256</v>
+        <v>0.1471104063238838</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.205000205326675</v>
+        <v>0.2023685089516221</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>135</v>
@@ -1197,19 +1197,19 @@
         <v>152087</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>127926</v>
+        <v>130774</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>175806</v>
+        <v>174642</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1951567252275395</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1641535818173376</v>
+        <v>0.1678085366811671</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2255938779716201</v>
+        <v>0.2240997711269526</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>257</v>
@@ -1218,19 +1218,19 @@
         <v>283073</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>253661</v>
+        <v>250397</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>318788</v>
+        <v>314785</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.184323016195372</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1651715777352403</v>
+        <v>0.163046243550039</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2075789296656864</v>
+        <v>0.2049720887132219</v>
       </c>
     </row>
     <row r="11">
@@ -1247,19 +1247,19 @@
         <v>625453</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>601369</v>
+        <v>603360</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>646780</v>
+        <v>645159</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8268381864712305</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.794999794673325</v>
+        <v>0.7976314910483779</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8550319903708744</v>
+        <v>0.8528895936761162</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>596</v>
@@ -1268,19 +1268,19 @@
         <v>627218</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>603499</v>
+        <v>604663</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>651379</v>
+        <v>648531</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8048432747724605</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7744061220283799</v>
+        <v>0.7759002288730472</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.835846418182662</v>
+        <v>0.832191463318833</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1167</v>
@@ -1289,19 +1289,19 @@
         <v>1252671</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1216956</v>
+        <v>1220959</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1282083</v>
+        <v>1285347</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8156769838046281</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.792421070334314</v>
+        <v>0.7950279112867781</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8348284222647598</v>
+        <v>0.836953756449961</v>
       </c>
     </row>
     <row r="12">
@@ -1393,19 +1393,19 @@
         <v>163125</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>139459</v>
+        <v>142395</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>186072</v>
+        <v>186246</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1747501740340511</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1493984636703272</v>
+        <v>0.1525427129420994</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1993327090088126</v>
+        <v>0.1995189260378193</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>233</v>
@@ -1414,19 +1414,19 @@
         <v>267394</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>238298</v>
+        <v>241109</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>294879</v>
+        <v>298913</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2572410922487573</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2292498595441549</v>
+        <v>0.2319540515842324</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2836825867976191</v>
+        <v>0.2875637761982607</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>398</v>
@@ -1435,19 +1435,19 @@
         <v>430518</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>391173</v>
+        <v>393246</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>466938</v>
+        <v>467777</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2182115052628263</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1982689645162821</v>
+        <v>0.1993198167825431</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2366709223103196</v>
+        <v>0.2370963141826462</v>
       </c>
     </row>
     <row r="14">
@@ -1464,19 +1464,19 @@
         <v>770348</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>747401</v>
+        <v>747227</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>794014</v>
+        <v>791078</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8252498259659489</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8006672909911874</v>
+        <v>0.8004810739621807</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8506015363296727</v>
+        <v>0.8474572870579007</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>722</v>
@@ -1485,19 +1485,19 @@
         <v>772073</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>744588</v>
+        <v>740554</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>801169</v>
+        <v>798358</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7427589077512426</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.716317413202381</v>
+        <v>0.7124362238017393</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.770750140455845</v>
+        <v>0.7680459484157676</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1485</v>
@@ -1506,19 +1506,19 @@
         <v>1542422</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1506002</v>
+        <v>1505163</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1581767</v>
+        <v>1579694</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7817884947371737</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7633290776896804</v>
+        <v>0.7629036858173538</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8017310354837179</v>
+        <v>0.8006801832174569</v>
       </c>
     </row>
     <row r="15">
@@ -1610,19 +1610,19 @@
         <v>626093</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>577116</v>
+        <v>584807</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>670654</v>
+        <v>674422</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1851944719938939</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1707073336214035</v>
+        <v>0.1729822099273633</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1983752476282493</v>
+        <v>0.1994897947502547</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>744</v>
@@ -1631,19 +1631,19 @@
         <v>827903</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>775160</v>
+        <v>778765</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>882754</v>
+        <v>879791</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2346595739920796</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.219710047699913</v>
+        <v>0.2207318029974446</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.250206332246964</v>
+        <v>0.2493665405068524</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1348</v>
@@ -1652,19 +1652,19 @@
         <v>1453996</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1384900</v>
+        <v>1382698</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1520897</v>
+        <v>1523606</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2104545862147991</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2004534506469918</v>
+        <v>0.2001346877096224</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2201378742600735</v>
+        <v>0.2205299945812986</v>
       </c>
     </row>
     <row r="17">
@@ -1681,19 +1681,19 @@
         <v>2754640</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2710079</v>
+        <v>2706311</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2803617</v>
+        <v>2795926</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8148055280061061</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8016247523717506</v>
+        <v>0.8005102052497453</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8292926663785961</v>
+        <v>0.8270177900726366</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2579</v>
@@ -1702,19 +1702,19 @@
         <v>2700201</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2645350</v>
+        <v>2648313</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2752944</v>
+        <v>2749339</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7653404260079204</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7497936677530361</v>
+        <v>0.7506334594931477</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7802899523000872</v>
+        <v>0.7792681970025555</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5193</v>
@@ -1723,19 +1723,19 @@
         <v>5454841</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5387940</v>
+        <v>5385231</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5523937</v>
+        <v>5526139</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7895454137852009</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7798621257399264</v>
+        <v>0.7794700054187014</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7995465493530082</v>
+        <v>0.7998653122903776</v>
       </c>
     </row>
     <row r="18">
@@ -2067,19 +2067,19 @@
         <v>108359</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>92790</v>
+        <v>90809</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>129648</v>
+        <v>126651</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.1585780803531729</v>
+        <v>0.1585780803531728</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1357929608379684</v>
+        <v>0.1328941789537588</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1897336102153628</v>
+        <v>0.1853479466905023</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>267</v>
@@ -2088,19 +2088,19 @@
         <v>140409</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>124496</v>
+        <v>124712</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>156894</v>
+        <v>156071</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1931769714686735</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1712831338936886</v>
+        <v>0.1715810673185315</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.215856298870905</v>
+        <v>0.2147241075068037</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>409</v>
@@ -2109,19 +2109,19 @@
         <v>248768</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>226617</v>
+        <v>225172</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>274751</v>
+        <v>273658</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.1764114902456749</v>
+        <v>0.1764114902456748</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1607033023680242</v>
+        <v>0.1596787997301707</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1948368195933748</v>
+        <v>0.1940616981185329</v>
       </c>
     </row>
     <row r="5">
@@ -2138,19 +2138,19 @@
         <v>574958</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>553669</v>
+        <v>556666</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>590527</v>
+        <v>592508</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.8414219196468272</v>
+        <v>0.8414219196468271</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8102663897846373</v>
+        <v>0.8146520533094976</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8642070391620315</v>
+        <v>0.8671058210462412</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>958</v>
@@ -2159,19 +2159,19 @@
         <v>586434</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>569949</v>
+        <v>570772</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>602347</v>
+        <v>602131</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8068230285313264</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7841437011290949</v>
+        <v>0.7852758924931963</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8287168661063116</v>
+        <v>0.8284189326814685</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1537</v>
@@ -2180,19 +2180,19 @@
         <v>1161391</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1135408</v>
+        <v>1136501</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1183542</v>
+        <v>1184987</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.8235885097543251</v>
+        <v>0.8235885097543253</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8051631804066253</v>
+        <v>0.8059383018814671</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8392966976319757</v>
+        <v>0.8403212002698296</v>
       </c>
     </row>
     <row r="6">
@@ -2284,19 +2284,19 @@
         <v>126606</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>108277</v>
+        <v>107465</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>148594</v>
+        <v>150596</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1208723284839162</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1033733472894782</v>
+        <v>0.1025984623675773</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1418647887864488</v>
+        <v>0.1437755099265692</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>291</v>
@@ -2305,19 +2305,19 @@
         <v>184323</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>164256</v>
+        <v>165099</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>205506</v>
+        <v>206139</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1733908879939828</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1545143532396674</v>
+        <v>0.1553075202118497</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1933177877509087</v>
+        <v>0.1939129513841941</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>439</v>
@@ -2326,19 +2326,19 @@
         <v>310929</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>283877</v>
+        <v>284593</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>342144</v>
+        <v>344486</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.1473258424659114</v>
+        <v>0.1473258424659113</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.134507875361169</v>
+        <v>0.1348470892994014</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1621164424103581</v>
+        <v>0.1632260269623459</v>
       </c>
     </row>
     <row r="8">
@@ -2355,19 +2355,19 @@
         <v>920831</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>898843</v>
+        <v>896841</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>939160</v>
+        <v>939972</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.8791276715160837</v>
+        <v>0.8791276715160838</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8581352112135512</v>
+        <v>0.8562244900734303</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8966266527105218</v>
+        <v>0.8974015376324223</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1212</v>
@@ -2376,19 +2376,19 @@
         <v>878725</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>857542</v>
+        <v>856909</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>898792</v>
+        <v>897949</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.8266091120060173</v>
+        <v>0.8266091120060174</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8066822122490913</v>
+        <v>0.8060870486158055</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8454856467603327</v>
+        <v>0.8446924797881501</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2027</v>
@@ -2397,19 +2397,19 @@
         <v>1799557</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1768342</v>
+        <v>1766000</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1826609</v>
+        <v>1825893</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.8526741575340887</v>
+        <v>0.8526741575340885</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8378835575896418</v>
+        <v>0.8367739730376546</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8654921246388311</v>
+        <v>0.8651529107005986</v>
       </c>
     </row>
     <row r="9">
@@ -2501,19 +2501,19 @@
         <v>72473</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>57636</v>
+        <v>57363</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>92063</v>
+        <v>93179</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.09024477804899206</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.07176932205278695</v>
+        <v>0.07142890927771221</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1146384650465184</v>
+        <v>0.1160278710957328</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>114</v>
@@ -2522,19 +2522,19 @@
         <v>82627</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>68513</v>
+        <v>68566</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>100491</v>
+        <v>99296</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1022526955108182</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.08478657881642496</v>
+        <v>0.08485227639086133</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1243599102421709</v>
+        <v>0.1228816404731701</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>183</v>
@@ -2543,19 +2543,19 @@
         <v>155100</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>132685</v>
+        <v>133065</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>180421</v>
+        <v>183905</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.09626734018999222</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.08235470695891144</v>
+        <v>0.08259038264705881</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.111983457907897</v>
+        <v>0.1141460066179163</v>
       </c>
     </row>
     <row r="11">
@@ -2572,19 +2572,19 @@
         <v>730600</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>711010</v>
+        <v>709894</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>745437</v>
+        <v>745710</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.909755221951008</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8853615349534812</v>
+        <v>0.8839721289042674</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9282306779472124</v>
+        <v>0.9285710907222879</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>927</v>
@@ -2593,19 +2593,19 @@
         <v>725438</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>707574</v>
+        <v>708769</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>739552</v>
+        <v>739499</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8977473044891817</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.875640089757829</v>
+        <v>0.8771183595268303</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.915213421183575</v>
+        <v>0.9151477236091389</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1534</v>
@@ -2614,19 +2614,19 @@
         <v>1456038</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1430717</v>
+        <v>1427233</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1478453</v>
+        <v>1478073</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9037326598100079</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8880165420921037</v>
+        <v>0.8858539933820837</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9176452930410888</v>
+        <v>0.9174096173529412</v>
       </c>
     </row>
     <row r="12">
@@ -2718,19 +2718,19 @@
         <v>164368</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>143653</v>
+        <v>142222</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>190395</v>
+        <v>187464</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1663705326817974</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1454030855456077</v>
+        <v>0.1439547610385995</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.192713872224613</v>
+        <v>0.1897474543201023</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>348</v>
@@ -2739,19 +2739,19 @@
         <v>234599</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>211502</v>
+        <v>207843</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>258704</v>
+        <v>255996</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.2104471856617603</v>
+        <v>0.2104471856617602</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1897284992930703</v>
+        <v>0.1864462055387865</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2320712186418562</v>
+        <v>0.2296422778572898</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>544</v>
@@ -2760,19 +2760,19 @@
         <v>398967</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>368405</v>
+        <v>366668</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>432796</v>
+        <v>430894</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.1897377862707995</v>
+        <v>0.1897377862707994</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1752035826922041</v>
+        <v>0.174377364345242</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2058261521090424</v>
+        <v>0.2049215066766432</v>
       </c>
     </row>
     <row r="14">
@@ -2789,19 +2789,19 @@
         <v>823598</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>797571</v>
+        <v>800502</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>844313</v>
+        <v>845744</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8336294673182026</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.807286127775387</v>
+        <v>0.8102525456798978</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8545969144543925</v>
+        <v>0.8560452389614005</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1207</v>
@@ -2810,19 +2810,19 @@
         <v>880163</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>856058</v>
+        <v>858766</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>903260</v>
+        <v>906919</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.7895528143382399</v>
+        <v>0.7895528143382397</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7679287813581439</v>
+        <v>0.7703577221427101</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8102715007069299</v>
+        <v>0.8135537944612133</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2014</v>
@@ -2831,19 +2831,19 @@
         <v>1703761</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1669932</v>
+        <v>1671834</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1734323</v>
+        <v>1736060</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.8102622137292006</v>
+        <v>0.8102622137292004</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7941738478909575</v>
+        <v>0.7950784933233576</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8247964173077958</v>
+        <v>0.8256226356547579</v>
       </c>
     </row>
     <row r="15">
@@ -2935,19 +2935,19 @@
         <v>471807</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>433583</v>
+        <v>434855</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>511478</v>
+        <v>512820</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1339677865919414</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1231141641721879</v>
+        <v>0.1234753428602749</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1452323958679781</v>
+        <v>0.1456134641083238</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1020</v>
@@ -2956,19 +2956,19 @@
         <v>641958</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>605434</v>
+        <v>605289</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>683941</v>
+        <v>682871</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.172907693320954</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1630702137096631</v>
+        <v>0.1630313437769726</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1842156193730836</v>
+        <v>0.1839276127373952</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1575</v>
@@ -2977,19 +2977,19 @@
         <v>1113764</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1060791</v>
+        <v>1059079</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1169709</v>
+        <v>1170712</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1539515686949145</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1466292581199869</v>
+        <v>0.1463926198690921</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1616845678838601</v>
+        <v>0.1618231883948152</v>
       </c>
     </row>
     <row r="17">
@@ -3006,19 +3006,19 @@
         <v>3049986</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3010315</v>
+        <v>3008973</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3088210</v>
+        <v>3086938</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.8660322134080586</v>
+        <v>0.8660322134080585</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.854767604132022</v>
+        <v>0.8543865358916766</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8768858358278123</v>
+        <v>0.8765246571397253</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4304</v>
@@ -3027,19 +3027,19 @@
         <v>3070760</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3028777</v>
+        <v>3029847</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3107284</v>
+        <v>3107429</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.8270923066790459</v>
+        <v>0.8270923066790461</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8157843806269164</v>
+        <v>0.8160723872626049</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8369297862903368</v>
+        <v>0.8369686562230279</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>7112</v>
@@ -3048,19 +3048,19 @@
         <v>6120747</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6064802</v>
+        <v>6063799</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6173720</v>
+        <v>6175432</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8460484313050853</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8383154321161397</v>
+        <v>0.8381768116051848</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8533707418800128</v>
+        <v>0.8536073801309079</v>
       </c>
     </row>
     <row r="18">
